--- a/headers.xlsx
+++ b/headers.xlsx
@@ -21,19 +21,19 @@
     <t>host</t>
   </si>
   <si>
-    <t>192.168.88.133</t>
+    <t>10.2.0.217</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>http://192.168.88.133/nextcloud/ocs/v2.php/cloud/users</t>
+    <t>http://10.2.0.217/nextcloud/ocs/v2.php/cloud/users</t>
   </si>
   <si>
     <t>cookies</t>
   </si>
   <si>
-    <t>oc_sessionPassphrase=zpyk1eF5GXyz%2FQ3WCpzYuT6uPcvcP0STIlncS5sqXRSoIr4IKxgSe5dnszhzvjRpXRuOBZ6%2Fy8tfBuB6Dfx1Q23J02T6BFN22Ox%2Bj6AVJPCWGbLD%2FLgdcLQIuXSSp6xt; nc_sameSiteCookielax=true; nc_sameSiteCookiestrict=true; oc6w6pnmn1pq=8a36f6174df8bf568cb6a8f233e9e2d9; nc_username=Garfield; nc_token=jUuhJ6nAk4mvr9hiIHzJ5YiUdswuAhMu; nc_session_id=8a36f6174df8bf568cb6a8f233e9e2d9</t>
+    <t>oc_sessionPassphrase=zpyk1eF5GXyz%2FQ3WCpzYuT6uPcvcP0STIlncS5sqXRSoIr4IKxgSe5dnszhzvjRpXRuOBZ6%2Fy8tfBuB6Dfx1Q23J02T6BFN22Ox%2Bj6AVJPCWGbLD%2FLgdcLQIuXSSp6xt; nc_sameSiteCookielax=true; nc_sameSiteCookiestrict=true; oc6w6pnmn1pq=0a3673c18b9586cf4957159ca8d1ca81; nc_username=Garfield; nc_token=hijwlX4CZlm%2Bzi%2FRSwHiY41V1YOch%2Bba; nc_session_id=0a3673c18b9586cf4957159ca8d1ca81; ocu94t3fw6uv=9baa3460cba06c81c45934c743199ec6</t>
   </si>
   <si>
     <t>user_agen</t>
@@ -45,7 +45,7 @@
     <t>request_token</t>
   </si>
   <si>
-    <t>4gyAJCl90PfF9AeWW2E7c2iRUoooYH7acwdSQ/yt3lE=:oHmrSn4U4ZGHpFOlEkpLRR79ON1fDTmdS1Ifcr//mRM=</t>
+    <t>Arh5nSW0u65HkYZqt57qdvbeI3y566hs6sBDH8DVm0k=:etsS6WzGw8gA/M05xt+IJaOySzjfqewVmLcybrKMsAs=</t>
   </si>
 </sst>
 </file>
@@ -58,7 +58,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,7 +83,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +95,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -104,28 +125,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -133,37 +149,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,39 +186,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,13 +240,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,79 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,79 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,9 +484,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,11 +525,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,152 +536,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,10 +691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1058,7 +1048,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1084,32 +1074,32 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.88.133/nextcloud/ocs/v2.php/cloud/users"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://10.2.0.217/nextcloud/ocs/v2.php/cloud/users" tooltip="http://10.2.0.217/nextcloud/ocs/v2.php/cloud/users"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/headers.xlsx
+++ b/headers.xlsx
@@ -33,10 +33,10 @@
     <t>cookies</t>
   </si>
   <si>
-    <t>oc_sessionPassphrase=zpyk1eF5GXyz%2FQ3WCpzYuT6uPcvcP0STIlncS5sqXRSoIr4IKxgSe5dnszhzvjRpXRuOBZ6%2Fy8tfBuB6Dfx1Q23J02T6BFN22Ox%2Bj6AVJPCWGbLD%2FLgdcLQIuXSSp6xt; nc_sameSiteCookielax=true; nc_sameSiteCookiestrict=true; oc6w6pnmn1pq=0a3673c18b9586cf4957159ca8d1ca81; nc_username=Garfield; nc_token=hijwlX4CZlm%2Bzi%2FRSwHiY41V1YOch%2Bba; nc_session_id=0a3673c18b9586cf4957159ca8d1ca81; ocu94t3fw6uv=9baa3460cba06c81c45934c743199ec6</t>
+    <t>oc_sessionPassphrase=69cTQI4%2BBnfvRwBHpUc7%2FzPc5ETCSIbl258z3QRln3tJ5N9HvyCVwj08cPHuMRa80MyrP4%2B7zSd%2F1Dly06IYhtD2lJpLm3UeJmoItRu56THqBw4XmCEpufEWuUGPE7Ig; nc_sameSiteCookielax=true; nc_sameSiteCookiestrict=true; ocip21mwb7y1=7fe10508d5462a2cdd2b06ff50fb90af; nc_username=Garfield; nc_token=1akwuSkY2bhsyzVYmS2fADOGiPVAdWaj; nc_session_id=7fe10508d5462a2cdd2b06ff50fb90af</t>
   </si>
   <si>
-    <t>user_agen</t>
+    <t>user_agent</t>
   </si>
   <si>
     <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/91.0.4472.124 Safari/537.36</t>
@@ -45,7 +45,7 @@
     <t>request_token</t>
   </si>
   <si>
-    <t>Arh5nSW0u65HkYZqt57qdvbeI3y566hs6sBDH8DVm0k=:etsS6WzGw8gA/M05xt+IJaOySzjfqewVmLcybrKMsAs=</t>
+    <t>YDcbl2cLXmmHhgw9R/mb5HuxSKop9x0FCb/E1oFqAag=:ElB48jJNMBz+63lzaLrsjhfmHOZcrSk3f9KUos47OcM=</t>
   </si>
 </sst>
 </file>
@@ -53,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -95,6 +95,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,6 +118,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,22 +146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,21 +155,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,44 +194,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +240,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,169 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,6 +431,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +454,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,26 +486,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -525,9 +523,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,19 +551,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,112 +572,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
